--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_dans_le_Centre/Liste_des_espèces_végétales_protégées_dans_le_Centre.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_dans_le_Centre/Liste_des_espèces_végétales_protégées_dans_le_Centre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
+          <t>Liste_des_espèces_végétales_protégées_dans_le_Centre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en région Centre est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Centre-Val de Loire, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 12 mai 1993[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en région Centre est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Centre-Val de Loire, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 12 mai 1993.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
+          <t>Liste_des_espèces_végétales_protégées_dans_le_Centre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mousses
+          <t>Mousses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anomodon longifolius (Brid.) Hartm.
 Pseudocalliergon lycopodioides (Brid.) Hedenäs anciennement Drepanocladus lycopodioides (Brid.) Warnst.
 Ephemerum stellatum Philib.
@@ -524,7 +542,43 @@
 Rhizomnium pseudopunctatum (B. et S.) T. Kop.
 Seligeria donniana (Sm.) C. Müll.
 Weissia squarrosa (Nees &amp; Hornsch.) C. Müll.
-Hépatiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_dans_le_Centre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bryophytes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hépatiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Apometzgeria pubescens (Schrank) Kuwah.
 Cephalozia connivens (Dicks.) Lindb.
 Cololejeunea calcarea (Libert.) Schiffn.
@@ -535,43 +589,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lichens</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Peltigera ponojensis Gyelnhall</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
+          <t>Liste_des_espèces_végétales_protégées_dans_le_Centre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +610,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Lichens</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Peltigera ponojensis Gyelnhall</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_dans_le_Centre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asplenium obovatum subsp. billotii (F.W.Schultz) O.Bolòs, Vigo, Massales &amp; Ninot anciennement Asplenium billotii F.W. Schultz, Doradille de Billot
@@ -608,33 +666,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_dans_le_Centre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Phanérogames angiospermes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monocotylédones
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anacamptis laxiflora (Lam.) R.M.Bateman, Pridgeon &amp; M.W.Chase anciennement Orchis laxiflora Lam. (s.l.), Orchis à fleurs lâches
 Anacamptis pyramidalis (L.) L.C.M. Richard, Orchis pyramidal
 Anthericum liliago L., Phalangère à fleurs de lys
@@ -695,7 +759,43 @@
 Tractema lilio-hyacinthus (L.) Speta anciennement Scilla liliohyacinthus L., Scille lis-jacinthe
 Trichophorum cespitosum (L.) Hartm. subsp. cespitosum anciennement Scirpus caespitosus L., Scirpe en touffe d'Allemagne
 Triglochin palustre L., Troscart des marais
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_dans_le_Centre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_dans_le_Centre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aconitum napellus L., Aconit napel
 Ajuga pyramidalis subsp. meonantha (Hoffmanns. &amp; Link) R.Fern. anciennement Ajuga occidentalis Br. Bl., Bugle d'Occident
 Alyssum montanum L., Alysson de montagne
